--- a/Porewater/Sulfide/Synoptic_CB/2025/September/Raw Data/COMPASS_Sept2025_SampleIDs.xlsx
+++ b/Porewater/Sulfide/Synoptic_CB/2025/September/Raw Data/COMPASS_Sept2025_SampleIDs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Biogeochemistry\COMPASS Synoptics\Samples &amp; Data\Porewater\H2S\2025\2025 September\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sinet-my.sharepoint.com/personal/readz_si_edu1/Documents/synoptic-discrete-data/Porewater/Sulfide/Synoptic_CB/2025/September/Raw Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C7A100-2CD0-4096-833B-D7A0DDEE43E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{47C7A100-2CD0-4096-833B-D7A0DDEE43E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9732717C-0218-4FD3-8350-85BF6C260E4C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{569BB281-6F4B-4FE0-B4AB-E6E4C5F2A2BE}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{569BB281-6F4B-4FE0-B4AB-E6E4C5F2A2BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,346 +36,86 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="108">
-  <si>
-    <t>Sample_ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="24">
   <si>
     <t>Number</t>
   </si>
   <si>
-    <t>GCW_202509_TR_LysA_20cm</t>
+    <t>GCW</t>
   </si>
   <si>
-    <t>GCW_202509_TR_LysB_45cm</t>
+    <t>TR</t>
   </si>
   <si>
-    <t>GCW_202509_TR_LysB_20cm</t>
+    <t>LysB</t>
   </si>
   <si>
-    <t>GCW_202509_TR_LysB_10cm</t>
+    <t>45cm</t>
   </si>
   <si>
-    <t>GCW_202509_TR_LysA_45cm</t>
+    <t>20cm</t>
   </si>
   <si>
-    <t>GCW_202509_WC_LysA_20cm</t>
+    <t>10cm</t>
   </si>
   <si>
-    <t>GCW_202509_WC_LysA_10cm</t>
+    <t>LysA</t>
   </si>
   <si>
-    <t>GCW_202509_TR_LysC_45cm</t>
+    <t>WC</t>
   </si>
   <si>
-    <t>GCW_202509_TR_LysC_20cm</t>
+    <t>LysC</t>
   </si>
   <si>
-    <t>GCW_202509_TR_LysC_10cm</t>
+    <t>SW</t>
   </si>
   <si>
-    <t>GCW_202509_WC_LysC_10cm</t>
+    <t>C</t>
   </si>
   <si>
-    <t>GCW_202509_WC_LysB_45cm</t>
+    <t>B</t>
   </si>
   <si>
-    <t>GCW_202509_WC_LysB_20cm</t>
+    <t>A</t>
   </si>
   <si>
-    <t>GCW_202509_WC_LysB_10cm</t>
+    <t>MSM</t>
   </si>
   <si>
-    <t>GCW_202509_WC_LysA_45cm</t>
+    <t>UP</t>
   </si>
   <si>
-    <t>GCW_202509_SW_C</t>
+    <t>GWI</t>
   </si>
   <si>
-    <t>GCW_202509_SW_B</t>
+    <t>SWH</t>
   </si>
   <si>
-    <t>GCW_202509_SW_A</t>
+    <t>SWAMP</t>
   </si>
   <si>
-    <t>GCW_202509_WC_LysC_45cm</t>
+    <t>Site</t>
   </si>
   <si>
-    <t>GCW_202509_WC_LysC_20cm</t>
+    <t>Date</t>
   </si>
   <si>
-    <t>MSM_202509_UP_LysB_45cm</t>
+    <t>Zone</t>
   </si>
   <si>
-    <t>MSM_202509_UP_LysB_20cm</t>
+    <t>Replicate</t>
   </si>
   <si>
-    <t>MSM_202509_UP_LysB_10cm</t>
-  </si>
-  <si>
-    <t>MSM_202509_UP_LysA_45cm</t>
-  </si>
-  <si>
-    <t>MSM_202509_UP_LysA_20cm</t>
-  </si>
-  <si>
-    <t>MSM_202509_TR_LysA_20cm</t>
-  </si>
-  <si>
-    <t>MSM_202509_TR_LysA_10cm</t>
-  </si>
-  <si>
-    <t>MSM_202509_UP_LysC_45cm</t>
-  </si>
-  <si>
-    <t>MSM_202509_UP_LysC_20cm</t>
-  </si>
-  <si>
-    <t>MSM_202509_UP_LysC_10cm</t>
-  </si>
-  <si>
-    <t>MSM_202509_TR_LysC_20cm</t>
-  </si>
-  <si>
-    <t>MSM_202509_TR_LysB_45cm</t>
-  </si>
-  <si>
-    <t>MSM_202509_TR_LysB_20cm</t>
-  </si>
-  <si>
-    <t>MSM_202509_TR_LysB_10cm</t>
-  </si>
-  <si>
-    <t>MSM_202509_TR_LysA_45cm</t>
-  </si>
-  <si>
-    <t>MSM_202509_WC_LysB_10cm</t>
-  </si>
-  <si>
-    <t>MSM_202509_WC_LysA_45cm</t>
-  </si>
-  <si>
-    <t>MSM_202509_WC_LysA_20cm</t>
-  </si>
-  <si>
-    <t>MSM_202509_WC_LysA_10cm</t>
-  </si>
-  <si>
-    <t>MSM_202509_TR_LysC_45cm</t>
-  </si>
-  <si>
-    <t>MSM_202509_SW_B</t>
-  </si>
-  <si>
-    <t>MSM_202509_SW_A</t>
-  </si>
-  <si>
-    <t>MSM_202509_WC_LysC_20cm</t>
-  </si>
-  <si>
-    <t>MSM_202509_WC_LysC_10cm</t>
-  </si>
-  <si>
-    <t>MSM_202509_WC_LysB_20cm</t>
-  </si>
-  <si>
-    <t>GWI_202509_UP_LysB_10cm</t>
-  </si>
-  <si>
-    <t>GWI_202509_UP_LysA_45cm</t>
-  </si>
-  <si>
-    <t>GWI_202509_UP_LysA_20cm</t>
-  </si>
-  <si>
-    <t>GWI_202509_UP_LysA_10cm</t>
-  </si>
-  <si>
-    <t>MSM_202509_SW_C</t>
-  </si>
-  <si>
-    <t>GWI_202509_TR_LysA_20cm</t>
-  </si>
-  <si>
-    <t>GWI_202509_TR_LysA_10cm</t>
-  </si>
-  <si>
-    <t>GWI_202509_UP_LysC_20cm</t>
-  </si>
-  <si>
-    <t>GWI_202509_UP_LysB_45cm</t>
-  </si>
-  <si>
-    <t>GWI_202509_UP_LysB_20cm</t>
-  </si>
-  <si>
-    <t>GWI_202509_TR_LysC_20cm</t>
-  </si>
-  <si>
-    <t>GWI_202509_TR_LysC_10cm</t>
-  </si>
-  <si>
-    <t>GWI_202509_TR_LysB_45cm</t>
-  </si>
-  <si>
-    <t>GWI_202509_TR_LysB_20cm</t>
-  </si>
-  <si>
-    <t>GWI_202509_TR_LysB_10cm</t>
-  </si>
-  <si>
-    <t>GWI_202509_WC_LysB_20cm</t>
-  </si>
-  <si>
-    <t>GWI_202509_WC_LysB_10cm</t>
-  </si>
-  <si>
-    <t>GWI_202509_WC_LysA_45cm</t>
-  </si>
-  <si>
-    <t>GWI_202509_WC_LysA_10cm</t>
-  </si>
-  <si>
-    <t>GWI_202509_TR_LysC_45cm</t>
-  </si>
-  <si>
-    <t>GWI_202509_SW_A</t>
-  </si>
-  <si>
-    <t>GWI_202509_SW_B</t>
-  </si>
-  <si>
-    <t>GWI_202509_WC_LysC_45cm</t>
-  </si>
-  <si>
-    <t>GWI_202509_WC_LysC_10cm</t>
-  </si>
-  <si>
-    <t>GWI_202509_WC_LysB_45cm</t>
-  </si>
-  <si>
-    <t>GWI_202509_SW_C</t>
-  </si>
-  <si>
-    <t>SWH_202509_UP_LysC_45cm</t>
-  </si>
-  <si>
-    <t>SWH_202509_UP_LysC_20cm</t>
-  </si>
-  <si>
-    <t>SWH_202509_UP_LysC_10cm</t>
-  </si>
-  <si>
-    <t>SWH_202509_UP_LysB_45cm</t>
-  </si>
-  <si>
-    <t>SWH_202509_UP_LysB_20cm</t>
-  </si>
-  <si>
-    <t>SWH_202509_SWAMP_LysB_20cm</t>
-  </si>
-  <si>
-    <t>SWH_202509_SWAMP_LysB_10cm</t>
-  </si>
-  <si>
-    <t>SWH_202509_SWAMP_LysA_45cm</t>
-  </si>
-  <si>
-    <t>SWH_202509_SWAMP_LysA_20cm</t>
-  </si>
-  <si>
-    <t>SWH_202509_SWAMP_LysA_10cm</t>
-  </si>
-  <si>
-    <t>SWH_202509_TR_LysA_10cm</t>
-  </si>
-  <si>
-    <t>SWH_202509_SWAMP_LysC_45cm</t>
-  </si>
-  <si>
-    <t>SWH_202509_SWAMP_LysC_20cm</t>
-  </si>
-  <si>
-    <t>SWH_202509_SWAMP_LysC_10cm</t>
-  </si>
-  <si>
-    <t>SWH_202509_SWAMP_LysB_45cm</t>
-  </si>
-  <si>
-    <t>SWH_202509_TR_LysB_45cm</t>
-  </si>
-  <si>
-    <t>SWH_202509_TR_LysB_20cm</t>
-  </si>
-  <si>
-    <t>SWH_202509_TR_LysB_10cm</t>
-  </si>
-  <si>
-    <t>SWH_202509_TR_LysA_45cm</t>
-  </si>
-  <si>
-    <t>SWH_202509_TR_LysA_20cm</t>
-  </si>
-  <si>
-    <t>SWH_202509_WC_LysA_20cm</t>
-  </si>
-  <si>
-    <t>SWH_202509_WC_LysA_10cm</t>
-  </si>
-  <si>
-    <t>SWH_202509_TR_LysC_45cm</t>
-  </si>
-  <si>
-    <t>SWH_202509_TR_LysC_20cm</t>
-  </si>
-  <si>
-    <t>SWH_202509_TR_LysC_10cm</t>
-  </si>
-  <si>
-    <t>SWH_202509_WC_LysC_10cm</t>
-  </si>
-  <si>
-    <t>SWH_202509_WC_LysB_45cm</t>
-  </si>
-  <si>
-    <t>SWH_202509_WC_LysB_20cm</t>
-  </si>
-  <si>
-    <t>SWH_202509_WC_LysB_10cm</t>
-  </si>
-  <si>
-    <t>SWH_202509_WC_LysA_45cm</t>
-  </si>
-  <si>
-    <t>SWH_202509_SW_C</t>
-  </si>
-  <si>
-    <t>SWH_202509_SW_B</t>
-  </si>
-  <si>
-    <t>SWH_202509_SW_A</t>
-  </si>
-  <si>
-    <t>SWH_202509_WC_LysC_45cm</t>
-  </si>
-  <si>
-    <t>SWH_202509_WC_LysC_20cm</t>
+    <t>Depth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -403,12 +143,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -745,903 +482,2199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21F8A0B-D2F5-4152-8917-6F457D69F7FD}">
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.26953125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>202509</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>202509</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>202509</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>202509</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>202509</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>202509</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>202509</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>202509</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>202509</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>202509</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>202509</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>202509</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>202509</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>202509</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>202509</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>202509</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>202509</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>202509</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>202509</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>202509</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>202509</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C23">
+        <v>202509</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>202509</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>202509</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C26">
+        <v>202509</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C27">
+        <v>202509</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C28">
+        <v>202509</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C29">
+        <v>202509</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C30">
+        <v>202509</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C31">
+        <v>202509</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C32">
+        <v>202509</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C33">
+        <v>202509</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C34">
+        <v>202509</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C35">
+        <v>202509</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C36">
+        <v>202509</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C37">
+        <v>202509</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C38">
+        <v>202509</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C39">
+        <v>202509</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C40">
+        <v>202509</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C41">
+        <v>202509</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C42">
+        <v>202509</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C43">
+        <v>202509</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C44">
+        <v>202509</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C45">
+        <v>202509</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C46">
+        <v>202509</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C47">
+        <v>202509</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C48">
+        <v>202509</v>
+      </c>
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C49">
+        <v>202509</v>
+      </c>
+      <c r="D49" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C50">
+        <v>202509</v>
+      </c>
+      <c r="D50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C51">
+        <v>202509</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C52">
+        <v>202509</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C53">
+        <v>202509</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C54">
+        <v>202509</v>
+      </c>
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C55">
+        <v>202509</v>
+      </c>
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C56">
+        <v>202509</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C57">
+        <v>202509</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C58">
+        <v>202509</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C59">
+        <v>202509</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C60">
+        <v>202509</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C61">
+        <v>202509</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C62">
+        <v>202509</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C63">
+        <v>202509</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C64">
+        <v>202509</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C65">
+        <v>202509</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C66">
+        <v>202509</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C67">
+        <v>202509</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C68">
+        <v>202509</v>
+      </c>
+      <c r="D68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C69">
+        <v>202509</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C70">
+        <v>202509</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C71">
+        <v>202509</v>
+      </c>
+      <c r="D71" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" t="s">
+        <v>3</v>
+      </c>
+      <c r="F71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C72">
+        <v>202509</v>
+      </c>
+      <c r="D72" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C73">
+        <v>202509</v>
+      </c>
+      <c r="D73" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C74">
+        <v>202509</v>
+      </c>
+      <c r="D74" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C75">
+        <v>202509</v>
+      </c>
+      <c r="D75" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C76">
+        <v>202509</v>
+      </c>
+      <c r="D76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C77">
+        <v>202509</v>
+      </c>
+      <c r="D77" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C78">
+        <v>202509</v>
+      </c>
+      <c r="D78" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C79">
+        <v>202509</v>
+      </c>
+      <c r="D79" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C80">
+        <v>202509</v>
+      </c>
+      <c r="D80" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" t="s">
+        <v>3</v>
+      </c>
+      <c r="F80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C81">
+        <v>202509</v>
+      </c>
+      <c r="D81" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" t="s">
+        <v>3</v>
+      </c>
+      <c r="F81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C82">
+        <v>202509</v>
+      </c>
+      <c r="D82" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" t="s">
+        <v>3</v>
+      </c>
+      <c r="F82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C83">
+        <v>202509</v>
+      </c>
+      <c r="D83" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C84">
+        <v>202509</v>
+      </c>
+      <c r="D84" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C85">
+        <v>202509</v>
+      </c>
+      <c r="D85" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C86">
+        <v>202509</v>
+      </c>
+      <c r="D86" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C87">
+        <v>202509</v>
+      </c>
+      <c r="D87" t="s">
+        <v>2</v>
+      </c>
+      <c r="E87" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C88">
+        <v>202509</v>
+      </c>
+      <c r="D88" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C89">
+        <v>202509</v>
+      </c>
+      <c r="D89" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C90">
+        <v>202509</v>
+      </c>
+      <c r="D90" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C91">
+        <v>202509</v>
+      </c>
+      <c r="D91" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C92">
+        <v>202509</v>
+      </c>
+      <c r="D92" t="s">
+        <v>2</v>
+      </c>
+      <c r="E92" t="s">
+        <v>3</v>
+      </c>
+      <c r="F92" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C93">
+        <v>202509</v>
+      </c>
+      <c r="D93" t="s">
+        <v>2</v>
+      </c>
+      <c r="E93" t="s">
+        <v>3</v>
+      </c>
+      <c r="F93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C94">
+        <v>202509</v>
+      </c>
+      <c r="D94" t="s">
+        <v>2</v>
+      </c>
+      <c r="E94" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C95">
+        <v>202509</v>
+      </c>
+      <c r="D95" t="s">
+        <v>2</v>
+      </c>
+      <c r="E95" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C96">
+        <v>202509</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>7</v>
+      </c>
+      <c r="F96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C97">
+        <v>202509</v>
+      </c>
+      <c r="D97" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" t="s">
+        <v>7</v>
+      </c>
+      <c r="F97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C98">
+        <v>202509</v>
+      </c>
+      <c r="D98" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" t="s">
+        <v>7</v>
+      </c>
+      <c r="F98" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C99">
+        <v>202509</v>
+      </c>
+      <c r="D99" t="s">
+        <v>2</v>
+      </c>
+      <c r="E99" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C100">
+        <v>202509</v>
+      </c>
+      <c r="D100" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C101">
+        <v>202509</v>
+      </c>
+      <c r="D101" t="s">
+        <v>2</v>
+      </c>
+      <c r="E101" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C102">
+        <v>202509</v>
+      </c>
+      <c r="D102" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C103">
+        <v>202509</v>
+      </c>
+      <c r="D103" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" t="s">
+        <v>3</v>
+      </c>
+      <c r="F103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C104">
+        <v>202509</v>
+      </c>
+      <c r="D104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" t="s">
+        <v>3</v>
+      </c>
+      <c r="F104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C105">
+        <v>202509</v>
+      </c>
+      <c r="D105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" t="s">
+        <v>3</v>
+      </c>
+      <c r="F105" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C106">
+        <v>202509</v>
+      </c>
+      <c r="D106" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" t="s">
+        <v>7</v>
+      </c>
+      <c r="F106" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C107">
+        <v>202509</v>
+      </c>
+      <c r="D107" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C108">
+        <v>202509</v>
+      </c>
+      <c r="D108" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C109">
+        <v>202509</v>
+      </c>
+      <c r="D109" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C110">
+        <v>202509</v>
+      </c>
+      <c r="D110" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>107</v>
+        <v>17</v>
+      </c>
+      <c r="C111">
+        <v>202509</v>
+      </c>
+      <c r="D111" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
